--- a/anscombe.xlsx
+++ b/anscombe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Dropbox\AustralPosgrado\RegAvanzadaVirtual\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniiaeedu-my.sharepoint.com/personal/msantos2_mail_austral_edu_ar/Documents/00 datos/10-Regresion_avanzada/Git_regre/regresionavanzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2485C493-8086-443D-A838-3499C71C2888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2485C493-8086-443D-A838-3499C71C2888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B339D02-3D06-49B1-8D2A-5E58C9E885F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81733990-48B4-4403-9487-C3E1335BEE85}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{81733990-48B4-4403-9487-C3E1335BEE85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>x1</t>
   </si>
@@ -59,6 +59,75 @@
   </si>
   <si>
     <t>y4</t>
+  </si>
+  <si>
+    <t>8.04</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>6.95</t>
+  </si>
+  <si>
+    <t>8.14</t>
+  </si>
+  <si>
+    <t>6.77</t>
+  </si>
+  <si>
+    <t>5.76</t>
+  </si>
+  <si>
+    <t>7.58</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>12.74</t>
+  </si>
+  <si>
+    <t>7.71</t>
+  </si>
+  <si>
+    <t>8.81</t>
+  </si>
+  <si>
+    <t>8.77</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>8.84</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>8.47</t>
+  </si>
+  <si>
+    <t>9.96</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>7.04</t>
   </si>
 </sst>
 </file>
@@ -134,10 +203,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -157,10 +226,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,12 +530,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -501,20 +574,20 @@
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9.14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7.46</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6.58</v>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -527,20 +600,20 @@
       <c r="D3" s="3">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
-        <v>6.95</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8.14</v>
-      </c>
-      <c r="G3" s="3">
-        <v>6.77</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5.76</v>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -553,20 +626,20 @@
       <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
-        <v>7.58</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8.74</v>
-      </c>
-      <c r="G4" s="2">
-        <v>12.74</v>
-      </c>
-      <c r="H4" s="2">
-        <v>7.71</v>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -579,20 +652,20 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
-        <v>8.81</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8.77</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="H5" s="3">
-        <v>8.84</v>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -605,20 +678,20 @@
       <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
-        <v>8.33</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.26</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7.81</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8.4700000000000006</v>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>14</v>
       </c>
@@ -631,17 +704,17 @@
       <c r="D7" s="3">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="F7" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>8.84</v>
-      </c>
-      <c r="H7" s="3">
-        <v>7.04</v>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
